--- a/Haarweg/misc/BADM-Instrument_Ops/HW-BADM-Instrument_Ops.xlsx
+++ b/Haarweg/misc/BADM-Instrument_Ops/HW-BADM-Instrument_Ops.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yocheah\Documents\SGI-autogen\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\zz_HaarwegDuivendaal\FLUXNET\Haarweg\misc\BADM-Instrument_Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A91B94-D9B2-4ED2-9F1F-B9005D868D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9408"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument_Ops" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="433">
   <si>
     <t>Variable</t>
   </si>
@@ -1275,13 +1276,67 @@
   </si>
   <si>
     <t>Measure the north-south distance from the site reference point (the latitude and longitude reported in the Site General Info template) to the instrument with GPS, tape and compass, or other method. Use magnetic north as a reference.</t>
+  </si>
+  <si>
+    <t>Johannes G.M. Barten</t>
+  </si>
+  <si>
+    <t>sjoerd.barten@wur.nl</t>
+  </si>
+  <si>
+    <t>NL-Hrw</t>
+  </si>
+  <si>
+    <t>Haarweg</t>
+  </si>
+  <si>
+    <t>GA_OP-LI-COR LI-7500 / SA-Campbell CSAT-3</t>
+  </si>
+  <si>
+    <t>TAU_1_1_1;TAU_SSITC_TEST_1_1_1;H_1_1_1;H_SSITC_TEST_1_1_1;LE_1_1_1;LE_SSITC_TEST_1_1_1;FC_1_1_1;FC_SSITC_TEST_1_1_1;FH2O_1_1_1;SH_1_1_1;SLE_1_1_1;SC_1_1_1;CO2_1_1_1;H2O_1_1_1;T_SONIC_1_1_1;TA_1_1_1;PA_1_1_1;RH_1_1_1;VPD_PI_1_1_1;T_DP_1_1_1;WS_1_1_1;WS_MAX_1_1_1;WD_1_1_1;USTAR_1_1_1;MO_LENGTH_1_1_1;ZL_1_1_1;FETCH_70_1_1_1;FETCH_90_1_1_1;</t>
+  </si>
+  <si>
+    <t>SW_IN_1_1_1;SW_OUT_1_1_1;</t>
+  </si>
+  <si>
+    <t>LW_IN_1_1_1;LW_OUT_1_1_1;</t>
+  </si>
+  <si>
+    <t>P_1_1_1</t>
+  </si>
+  <si>
+    <t>TS_1_1_1;TS_1_2_1;TS_1_3_1;TS_1_4_1;TS_1_5_1;TS_2_1_1;TS_2_2_1;TS_2_3_1;</t>
+  </si>
+  <si>
+    <t>G_1_1_1;G_2_1_1;</t>
+  </si>
+  <si>
+    <t>RH_2_1_1;</t>
+  </si>
+  <si>
+    <t>TA_2_1_1;TA_3_1_1;</t>
+  </si>
+  <si>
+    <t>RH_3_1_1;</t>
+  </si>
+  <si>
+    <t>WD_2_1_1;</t>
+  </si>
+  <si>
+    <t>WS_2_1_1;WS_MAX_2_1_1;</t>
+  </si>
+  <si>
+    <t>-0.05;-0.10;-0.20;-0.50;-1.00;-0.05;-0.10;-0.20</t>
+  </si>
+  <si>
+    <t>-0.05;-0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,8 +1352,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1353,6 +1416,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1378,10 +1447,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,8 +1486,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1695,21 +1771,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="45.77734375" customWidth="1"/>
-    <col min="4" max="90" width="45.6640625" customWidth="1"/>
+    <col min="1" max="90" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1733,9 +1808,11 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1745,9 +1822,11 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1757,9 +1836,11 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1769,9 +1850,11 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1781,9 +1864,11 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="15">
+        <v>20250502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1793,9 +1878,41 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1805,9 +1922,19 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1817,9 +1944,19 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1829,9 +1966,19 @@
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1841,9 +1988,19 @@
       <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1853,9 +2010,19 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1865,9 +2032,41 @@
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D13" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" t="s">
+        <v>423</v>
+      </c>
+      <c r="H13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I13" t="s">
+        <v>425</v>
+      </c>
+      <c r="J13" t="s">
+        <v>427</v>
+      </c>
+      <c r="K13" t="s">
+        <v>426</v>
+      </c>
+      <c r="L13" t="s">
+        <v>428</v>
+      </c>
+      <c r="M13" t="s">
+        <v>430</v>
+      </c>
+      <c r="N13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1877,9 +2076,35 @@
       <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D14" s="5">
+        <v>3.44</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="J14">
+        <v>1.5</v>
+      </c>
+      <c r="K14">
+        <v>1.5</v>
+      </c>
+      <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1889,9 +2114,21 @@
       <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1901,9 +2138,21 @@
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1913,9 +2162,9 @@
       <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -1925,9 +2174,9 @@
       <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1937,9 +2186,9 @@
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1949,9 +2198,9 @@
       <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
@@ -1961,9 +2210,9 @@
       <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -1973,9 +2222,9 @@
       <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -1985,16 +2234,19 @@
       <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{55A49163-BEEC-4EC8-9E59-34B71D994F0D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C165"/>
   <sheetViews>
@@ -2002,12 +2254,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="45.77734375" customWidth="1"/>
+    <col min="1" max="3" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -2018,7 +2270,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>63</v>
       </c>
@@ -2029,7 +2281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
@@ -2040,7 +2292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -2051,7 +2303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>66</v>
       </c>
@@ -2062,7 +2314,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
@@ -2073,7 +2325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
@@ -2084,7 +2336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -2095,7 +2347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
@@ -2106,7 +2358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>63</v>
       </c>
@@ -2117,7 +2369,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -2128,7 +2380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -2139,7 +2391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
@@ -2150,7 +2402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -2172,7 +2424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
@@ -2183,7 +2435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>63</v>
       </c>
@@ -2194,7 +2446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
@@ -2205,7 +2457,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>63</v>
       </c>
@@ -2216,7 +2468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -2227,7 +2479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -2238,7 +2490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -2249,7 +2501,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
@@ -2260,7 +2512,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -2271,7 +2523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -2282,7 +2534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -2293,7 +2545,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>63</v>
       </c>
@@ -2304,7 +2556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
@@ -2315,7 +2567,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -2326,7 +2578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
@@ -2337,7 +2589,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>63</v>
       </c>
@@ -2348,7 +2600,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -2359,7 +2611,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -2370,7 +2622,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>63</v>
       </c>
@@ -2381,7 +2633,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -2392,7 +2644,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
@@ -2403,7 +2655,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>63</v>
       </c>
@@ -2414,7 +2666,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>63</v>
       </c>
@@ -2425,7 +2677,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>63</v>
       </c>
@@ -2436,7 +2688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>63</v>
       </c>
@@ -2447,7 +2699,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>63</v>
       </c>
@@ -2458,7 +2710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>63</v>
       </c>
@@ -2469,7 +2721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>66</v>
       </c>
@@ -2480,7 +2732,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>63</v>
       </c>
@@ -2491,7 +2743,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>63</v>
       </c>
@@ -2502,7 +2754,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2513,7 +2765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>63</v>
       </c>
@@ -2524,7 +2776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
@@ -2535,7 +2787,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -2546,7 +2798,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>63</v>
       </c>
@@ -2557,7 +2809,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>63</v>
       </c>
@@ -2568,7 +2820,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
@@ -2579,7 +2831,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>63</v>
       </c>
@@ -2590,7 +2842,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>63</v>
       </c>
@@ -2601,7 +2853,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>63</v>
       </c>
@@ -2612,7 +2864,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>63</v>
       </c>
@@ -2623,7 +2875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>63</v>
       </c>
@@ -2634,7 +2886,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>63</v>
       </c>
@@ -2645,7 +2897,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
@@ -2656,7 +2908,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>63</v>
       </c>
@@ -2667,7 +2919,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>63</v>
       </c>
@@ -2678,7 +2930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -2689,7 +2941,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>63</v>
       </c>
@@ -2700,7 +2952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>63</v>
       </c>
@@ -2711,7 +2963,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>63</v>
       </c>
@@ -2722,7 +2974,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>63</v>
       </c>
@@ -2733,7 +2985,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>63</v>
       </c>
@@ -2744,7 +2996,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>63</v>
       </c>
@@ -2755,7 +3007,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>63</v>
       </c>
@@ -2766,7 +3018,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>63</v>
       </c>
@@ -2777,7 +3029,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>63</v>
       </c>
@@ -2788,7 +3040,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>63</v>
       </c>
@@ -2799,7 +3051,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>63</v>
       </c>
@@ -2810,7 +3062,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>63</v>
       </c>
@@ -2821,7 +3073,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>63</v>
       </c>
@@ -2832,7 +3084,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>63</v>
       </c>
@@ -2843,7 +3095,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>63</v>
       </c>
@@ -2854,7 +3106,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>63</v>
       </c>
@@ -2865,7 +3117,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>63</v>
       </c>
@@ -2876,7 +3128,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>63</v>
       </c>
@@ -2887,7 +3139,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>63</v>
       </c>
@@ -2898,7 +3150,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>63</v>
       </c>
@@ -2909,7 +3161,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>63</v>
       </c>
@@ -2920,7 +3172,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>63</v>
       </c>
@@ -2931,7 +3183,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>63</v>
       </c>
@@ -2942,7 +3194,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>63</v>
       </c>
@@ -2953,7 +3205,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>63</v>
       </c>
@@ -2964,7 +3216,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>63</v>
       </c>
@@ -2975,7 +3227,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>63</v>
       </c>
@@ -2986,7 +3238,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>63</v>
       </c>
@@ -2997,7 +3249,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>63</v>
       </c>
@@ -3008,7 +3260,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>63</v>
       </c>
@@ -3019,7 +3271,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>63</v>
       </c>
@@ -3030,7 +3282,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>63</v>
       </c>
@@ -3041,7 +3293,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>63</v>
       </c>
@@ -3052,7 +3304,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>63</v>
       </c>
@@ -3063,7 +3315,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>63</v>
       </c>
@@ -3074,7 +3326,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>63</v>
       </c>
@@ -3085,7 +3337,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>63</v>
       </c>
@@ -3096,7 +3348,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>63</v>
       </c>
@@ -3107,7 +3359,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>63</v>
       </c>
@@ -3118,7 +3370,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>63</v>
       </c>
@@ -3129,7 +3381,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>63</v>
       </c>
@@ -3140,7 +3392,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>63</v>
       </c>
@@ -3151,7 +3403,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>63</v>
       </c>
@@ -3162,7 +3414,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>63</v>
       </c>
@@ -3173,7 +3425,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
@@ -3184,7 +3436,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>63</v>
       </c>
@@ -3195,7 +3447,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>63</v>
       </c>
@@ -3206,7 +3458,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>63</v>
       </c>
@@ -3217,7 +3469,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>63</v>
       </c>
@@ -3228,7 +3480,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>63</v>
       </c>
@@ -3239,7 +3491,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>63</v>
       </c>
@@ -3250,7 +3502,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>63</v>
       </c>
@@ -3261,7 +3513,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>63</v>
       </c>
@@ -3272,7 +3524,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>63</v>
       </c>
@@ -3283,7 +3535,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>63</v>
       </c>
@@ -3294,7 +3546,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>63</v>
       </c>
@@ -3305,7 +3557,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>63</v>
       </c>
@@ -3316,7 +3568,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>63</v>
       </c>
@@ -3327,7 +3579,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>63</v>
       </c>
@@ -3338,7 +3590,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>63</v>
       </c>
@@ -3349,7 +3601,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>63</v>
       </c>
@@ -3360,7 +3612,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>63</v>
       </c>
@@ -3371,7 +3623,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>63</v>
       </c>
@@ -3382,7 +3634,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>63</v>
       </c>
@@ -3393,7 +3645,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>63</v>
       </c>
@@ -3404,7 +3656,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>63</v>
       </c>
@@ -3415,7 +3667,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>63</v>
       </c>
@@ -3426,7 +3678,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>63</v>
       </c>
@@ -3437,7 +3689,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>63</v>
       </c>
@@ -3448,7 +3700,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>63</v>
       </c>
@@ -3459,7 +3711,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>63</v>
       </c>
@@ -3470,7 +3722,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>63</v>
       </c>
@@ -3481,7 +3733,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>63</v>
       </c>
@@ -3492,7 +3744,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>63</v>
       </c>
@@ -3503,7 +3755,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>63</v>
       </c>
@@ -3514,7 +3766,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>63</v>
       </c>
@@ -3525,7 +3777,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>63</v>
       </c>
@@ -3536,7 +3788,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>63</v>
       </c>
@@ -3547,7 +3799,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>63</v>
       </c>
@@ -3558,7 +3810,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>63</v>
       </c>
@@ -3569,7 +3821,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>63</v>
       </c>
@@ -3580,7 +3832,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>63</v>
       </c>
@@ -3591,7 +3843,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>63</v>
       </c>
@@ -3602,7 +3854,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>63</v>
       </c>
@@ -3613,7 +3865,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>63</v>
       </c>
@@ -3624,7 +3876,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>63</v>
       </c>
@@ -3635,7 +3887,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>63</v>
       </c>
@@ -3646,7 +3898,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>22</v>
       </c>
@@ -3657,7 +3909,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>22</v>
       </c>
@@ -3668,7 +3920,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>22</v>
       </c>
@@ -3679,7 +3931,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>22</v>
       </c>
@@ -3690,7 +3942,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>22</v>
       </c>
@@ -3701,7 +3953,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>22</v>
       </c>
@@ -3712,7 +3964,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>22</v>
       </c>
@@ -3723,7 +3975,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>22</v>
       </c>
@@ -3734,7 +3986,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>22</v>
       </c>
@@ -3745,7 +3997,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>22</v>
       </c>
@@ -3756,7 +4008,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>22</v>
       </c>
@@ -3767,7 +4019,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>22</v>
       </c>
@@ -3778,7 +4030,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>22</v>
       </c>
@@ -3789,7 +4041,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>22</v>
       </c>
@@ -3800,7 +4052,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>22</v>
       </c>
@@ -3811,7 +4063,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>22</v>
       </c>
@@ -3828,7 +4080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -3836,14 +4088,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="7" width="45.77734375" customWidth="1"/>
+    <col min="1" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>392</v>
       </c>
@@ -3866,7 +4118,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>397</v>
       </c>
@@ -3889,7 +4141,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>397</v>
       </c>
@@ -3912,7 +4164,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>397</v>
       </c>
@@ -3935,7 +4187,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>397</v>
       </c>
@@ -3958,7 +4210,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>397</v>
       </c>
@@ -3981,7 +4233,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>406</v>
       </c>
@@ -4004,7 +4256,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>406</v>
       </c>
@@ -4027,7 +4279,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>406</v>
       </c>
@@ -4050,7 +4302,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>406</v>
       </c>
@@ -4073,7 +4325,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>406</v>
       </c>
@@ -4096,7 +4348,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>406</v>
       </c>
@@ -4119,7 +4371,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>406</v>
       </c>
@@ -4142,7 +4394,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>406</v>
       </c>
@@ -4165,7 +4417,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>406</v>
       </c>
@@ -4188,7 +4440,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>406</v>
       </c>
@@ -4211,7 +4463,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>406</v>
       </c>
@@ -4234,7 +4486,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>406</v>
       </c>
@@ -4257,7 +4509,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>406</v>
       </c>
@@ -4280,7 +4532,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>406</v>
       </c>
@@ -4303,7 +4555,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>406</v>
       </c>
@@ -4326,7 +4578,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>406</v>
       </c>
@@ -4349,7 +4601,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>406</v>
       </c>

--- a/Haarweg/misc/BADM-Instrument_Ops/HW-BADM-Instrument_Ops.xlsx
+++ b/Haarweg/misc/BADM-Instrument_Ops/HW-BADM-Instrument_Ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\zz_HaarwegDuivendaal\FLUXNET\Haarweg\misc\BADM-Instrument_Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A91B94-D9B2-4ED2-9F1F-B9005D868D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3575EB-4956-4E45-81C3-D5D877323235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="442">
   <si>
     <t>Variable</t>
   </si>
@@ -1290,9 +1290,6 @@
     <t>Haarweg</t>
   </si>
   <si>
-    <t>GA_OP-LI-COR LI-7500 / SA-Campbell CSAT-3</t>
-  </si>
-  <si>
     <t>TAU_1_1_1;TAU_SSITC_TEST_1_1_1;H_1_1_1;H_SSITC_TEST_1_1_1;LE_1_1_1;LE_SSITC_TEST_1_1_1;FC_1_1_1;FC_SSITC_TEST_1_1_1;FH2O_1_1_1;SH_1_1_1;SLE_1_1_1;SC_1_1_1;CO2_1_1_1;H2O_1_1_1;T_SONIC_1_1_1;TA_1_1_1;PA_1_1_1;RH_1_1_1;VPD_PI_1_1_1;T_DP_1_1_1;WS_1_1_1;WS_MAX_1_1_1;WD_1_1_1;USTAR_1_1_1;MO_LENGTH_1_1_1;ZL_1_1_1;FETCH_70_1_1_1;FETCH_90_1_1_1;</t>
   </si>
   <si>
@@ -1330,6 +1327,36 @@
   </si>
   <si>
     <t>-0.05;-0.05</t>
+  </si>
+  <si>
+    <t>HW_RAD_1</t>
+  </si>
+  <si>
+    <t>HW_RAD_2</t>
+  </si>
+  <si>
+    <t>HW_PREC_1</t>
+  </si>
+  <si>
+    <t>HW_TEMP_1</t>
+  </si>
+  <si>
+    <t>HW_SOIL_1</t>
+  </si>
+  <si>
+    <t>HW_RH_1</t>
+  </si>
+  <si>
+    <t>HW_RH_2</t>
+  </si>
+  <si>
+    <t>HW_WIND_1</t>
+  </si>
+  <si>
+    <t>HW_WIND_2</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,12 +1443,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1451,7 +1472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,10 +1508,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1773,18 +1797,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="90" width="45.7109375" customWidth="1"/>
+    <col min="1" max="91" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,8 +1819,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1811,8 +1834,9 @@
       <c r="D2" s="5" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1825,8 +1849,9 @@
       <c r="D3" s="5" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1840,7 +1865,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1853,8 +1878,9 @@
       <c r="D5" s="14" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1865,10 +1891,11 @@
         <v>16</v>
       </c>
       <c r="D6" s="15">
-        <v>20250502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>20250521</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1879,40 +1906,43 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
         <v>267</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>273</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>297</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>253</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>317</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>253</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>235</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>247</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>213</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1922,19 +1952,44 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>258</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" t="s">
+        <v>434</v>
+      </c>
+      <c r="I8" t="s">
+        <v>435</v>
+      </c>
+      <c r="J8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K8" t="s">
+        <v>435</v>
+      </c>
+      <c r="L8" t="s">
+        <v>437</v>
+      </c>
+      <c r="M8" t="s">
+        <v>438</v>
+      </c>
+      <c r="N8" t="s">
+        <v>439</v>
+      </c>
+      <c r="O8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1945,18 +2000,19 @@
         <v>24</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1967,18 +2023,19 @@
         <v>27</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1989,18 +2046,19 @@
         <v>30</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -2011,18 +2069,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2033,40 +2092,41 @@
         <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" t="s">
         <v>420</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>421</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>422</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>423</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>424</v>
-      </c>
-      <c r="I13" t="s">
-        <v>425</v>
-      </c>
-      <c r="J13" t="s">
-        <v>427</v>
       </c>
       <c r="K13" t="s">
         <v>426</v>
       </c>
       <c r="L13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N13" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -2079,32 +2139,39 @@
       <c r="D14" s="5">
         <v>3.44</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="J14">
+      <c r="K14" s="20">
         <v>1.5</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="20">
         <v>1.5</v>
       </c>
-      <c r="L14">
+      <c r="M14" s="20">
         <v>1.5</v>
       </c>
-      <c r="M14">
+      <c r="N14" s="20">
         <v>10</v>
       </c>
-      <c r="N14">
+      <c r="O14" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2114,21 +2181,24 @@
       <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>0</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2138,21 +2208,24 @@
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>0</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2163,8 +2236,11 @@
         <v>45</v>
       </c>
       <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E17" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2175,8 +2251,11 @@
         <v>45</v>
       </c>
       <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -2187,8 +2266,11 @@
         <v>45</v>
       </c>
       <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -2199,8 +2281,11 @@
         <v>52</v>
       </c>
       <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
@@ -2211,8 +2296,11 @@
         <v>55</v>
       </c>
       <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -2223,8 +2311,11 @@
         <v>55</v>
       </c>
       <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -2235,6 +2326,9 @@
         <v>55</v>
       </c>
       <c r="D23" s="15"/>
+      <c r="E23" s="19" t="s">
+        <v>441</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
